--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389917</v>
+        <v>439542.8206532585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514381</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -701,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.47684708846108</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>87.95566939920795</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,13 +1268,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1415,19 +1417,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1619,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y14" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>136.8640974686391</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="19">
@@ -1999,64 +2001,64 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2220,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>103.5335228664165</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>56.69686991152102</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,70 +2554,70 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>98.09531059045651</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>99.01229119645326</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.86695539771655</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,67 +3274,67 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>72.29853778399182</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,64 +3426,64 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>149.3895849832727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3910,43 +3912,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>241.0142888776591</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4153,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4349,22 +4351,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
         <v>19.28114311021272</v>
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.6601697108322</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C3" t="n">
-        <v>328.2071404297052</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D3" t="n">
-        <v>179.2727307684539</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4452,7 +4454,7 @@
         <v>756.2056553051034</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.8755067309003</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>756.2968567456824</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4691,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4914,19 +4916,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
         <v>31.35113235729608</v>
@@ -5063,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X14" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5366,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5452,10 +5454,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W18" t="n">
-        <v>500.6814290152826</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X18" t="n">
-        <v>500.6814290152826</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y18" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5704,19 +5706,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.7447050367114</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5868,13 +5870,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>396.1021129885993</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>188.2506127830665</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2506127830665</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5929,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021275</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021275</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021275</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021275</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021275</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021275</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>277.6047704292607</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C27" t="n">
-        <v>277.6047704292607</v>
+        <v>258.02438387755</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>258.02438387755</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>258.02438387755</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y27" t="n">
-        <v>277.6047704292607</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="28">
@@ -6406,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6883,25 +6885,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.334904905842</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>789.8588000190857</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>789.8588000190857</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>561.6351817554748</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>561.6351817554748</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>318.1864051113748</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>110.334904905842</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>110.334904905842</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7453,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>40.6788758079141</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>40.6788758079141</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>40.6788758079141</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J46" t="n">
         <v>19.28114311021272</v>
@@ -7837,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9012,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22589,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>246.9027416247241</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22632,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>121.2058486888433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>59.4893961654308</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23042,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,13 +23156,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y14" t="n">
-        <v>195.8925415817689</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23795,7 +23797,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>136.8980149423187</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>8.205114924744777</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,10 +23971,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>242.3541153134493</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24014,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24108,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>148.1614602945031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,13 +24171,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>90.74819565311773</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24339,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>49.34975497418225</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>46.05692119693062</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24734,10 +24736,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>157.8415435905992</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,28 +24964,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>99.384633319846</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25442,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25761,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>56.38340022020478</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>330.2403360996553</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>86.73796959247585</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>127.8460714905183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26041,10 +26043,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>99696.40351879936</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
@@ -26433,7 +26435,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585246</v>
+        <v>-37901.40784585245</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569529</v>
+        <v>42868.02368569533</v>
       </c>
       <c r="D6" t="n">
         <v>42868.02368569533</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569535</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569527</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569535</v>
       </c>
       <c r="H6" t="n">
         <v>76495.6236856953</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569526</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658904</v>
+        <v>13435.68108658908</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.62368569529</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569529</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.6236856953</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569529</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569533</v>
+        <v>76495.62368569536</v>
       </c>
       <c r="P6" t="n">
         <v>76495.62368569532</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35732,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532585</v>
+        <v>337290.5109663218</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>63.88882306452232</v>
       </c>
     </row>
     <row r="4">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>89.89109712599213</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>88.6401485661975</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1861,55 +1861,55 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>91.00671443664312</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>55.57566235103577</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,11 +2080,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>33.19332575419072</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>89.89109712599213</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,70 +2323,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>202.2946864288972</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D24" t="n">
-        <v>56.69686991152102</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>84.41978777916125</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>99.01229119645326</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
     </row>
     <row r="28">
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
     </row>
     <row r="30">
@@ -2876,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>63.1601700331929</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3085,13 +3085,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>123.881452240379</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3195,58 +3195,58 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,67 +3265,67 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>50.05769526855297</v>
+        <v>90.16066412513263</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y3" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4509,10 +4509,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
         <v>234.810827406191</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
         <v>31.35113235729608</v>
@@ -5071,22 +5071,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
         <v>19.28114311021272</v>
@@ -5123,13 +5123,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
         <v>19.28114311021272</v>
@@ -5366,16 +5366,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E17" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="18">
@@ -5621,22 +5621,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U18" t="n">
-        <v>761.8705608694022</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V18" t="n">
-        <v>526.7184526376595</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2696759935595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>75.41817578802664</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5706,19 +5706,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.0535470733607</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
-        <v>521.0535470733607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6107,13 +6107,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>521.0535470733607</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0535470733607</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>258.02438387755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>258.02438387755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>258.02438387755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W27" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X27" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y27" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,10 +6414,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U32" t="n">
-        <v>132.7447050367114</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V32" t="n">
-        <v>132.7447050367114</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6785,10 +6785,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
         <v>725.4530095217538</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V33" t="n">
-        <v>125.0774898247174</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7131,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7286,16 +7286,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
         <v>20.03527576299844</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W44" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
         <v>19.28114311021272</v>
@@ -7842,16 +7842,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10433,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11159,7 +11159,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>141.793872712782</v>
       </c>
     </row>
     <row r="4">
@@ -22749,13 +22749,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22786,10 +22786,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>119.4884220823225</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>174.0429600055611</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23554,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23624,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23749,10 +23749,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,19 +23785,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>136.8980149423187</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23861,25 +23861,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>109.1580142581785</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>104.1501914090199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>81.79207397784569</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,13 +24211,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D24" t="n">
-        <v>90.74819565311773</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>330.8829497359738</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>46.05692119693062</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>100.9443125299447</v>
       </c>
     </row>
     <row r="28">
@@ -24654,13 +24654,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>295.8490009179772</v>
       </c>
     </row>
     <row r="30">
@@ -24764,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>142.6128151702846</v>
       </c>
       <c r="Y30" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>236.9120424101793</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25046,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>102.0599298405958</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>255.2817600455862</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>31.13252716541155</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,16 +25760,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>175.8836868124218</v>
+        <v>135.7807179558422</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26043,10 +26043,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="D2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
@@ -26343,16 +26343,16 @@
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879943</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26450,7 +26450,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585245</v>
+        <v>-50119.41846589289</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569533</v>
+        <v>30650.01306565482</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569533</v>
+        <v>30650.01306565484</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658908</v>
+        <v>1217.67046654862</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569536</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565485</v>
       </c>
     </row>
   </sheetData>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35734,10 +35734,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N39" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
